--- a/Resources/sezioni_territoriali.xlsx
+++ b/Resources/sezioni_territoriali.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sistemiainfo-my.sharepoint.com/personal/claudia_esposito_iqera_it/Documents/Documenti/Scraping_ade/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2E1148784779880F62355476585DCE3A8746099A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C5625B8-1326-45CE-A708-A6CA96C961DB}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_2E1148784779880F62355476585DCE3A8746099A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF7B0536-AEC6-4702-86E0-8F9A4CAB96B0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5250" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -827,10 +827,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C44" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1355,14 +1358,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
       <c r="B20" t="s">
         <v>44</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
     </row>
